--- a/Concentration data/etc4323-sup-0001-suppdata-s1_Edited.xlsx
+++ b/Concentration data/etc4323-sup-0001-suppdata-s1_Edited.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GrayLab\Projects\Plastics\ActiveProjects\ScottCRisk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCoffin\Documents\OFFLINE\DATA\R\GitHub\aq_mp_tox_shiny\aq_mp_tox_shiny\Concentration data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC0D03-60EF-4F7D-9072-76A101008D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C178001-10CB-461A-AE40-78B710AE6D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49170" yWindow="-2550" windowWidth="29040" windowHeight="15840" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDFTables.com" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3665" uniqueCount="142">
   <si>
     <t>Sampling apparatus</t>
   </si>
@@ -446,6 +456,9 @@
   <si>
     <t>Device Opening Dimension (cm)</t>
   </si>
+  <si>
+    <t>Correction.Factor</t>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +513,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00E+0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00E+0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00E+0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,6 +543,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A77CD88E-81FF-4B3F-9A4C-348C9B3F075E}" name="Table1" displayName="Table1" ref="A1:O392" totalsRowShown="0">
+  <autoFilter ref="A1:O392" xr:uid="{DCDF37E5-1FD5-4317-869B-CCBF3789C3E5}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{EC685E00-0152-478D-BF4B-682AB5B9F7ED}" name="Sampling apparatus"/>
+    <tableColumn id="2" xr3:uid="{6DCE5224-704E-41B7-8411-D97E964D2286}" name="Device Opening Dimension (cm)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{17C9599E-9BC5-4050-9C35-CBD42A6762AB}" name="Min particle size um" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A20A0B10-04C5-4D4F-88EC-FBD76AA68107}" name="Max particle size um"/>
+    <tableColumn id="5" xr3:uid="{7CB7588D-3079-401A-82DC-773A98DAD3A1}" name="Sampling location"/>
+    <tableColumn id="6" xr3:uid="{F8934D5D-B0E4-49DA-82B2-7CA4AFF67B4D}" name="System"/>
+    <tableColumn id="7" xr3:uid="{C0D1164C-752C-4CB7-A9B3-B149F36A926B}" name="Single Measurement conc (#/m3)"/>
+    <tableColumn id="8" xr3:uid="{8756E5D1-FFE6-4C4B-B966-AB85D1582869}" name="Minimum conc (#/m3)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{0DD773A7-68DB-4AB2-8CC6-CAA6353ABCB0}" name="Mean conc (#/m3)" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{7FCAE546-D976-4EE4-A848-719007793DE1}" name="Median conc (#/m3)"/>
+    <tableColumn id="11" xr3:uid="{EE04754B-EAC1-4900-A346-7A0975BE8D0D}" name="Maximum conc (#/m3)" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{8BF10847-BC45-44E5-8A72-0BC9A5991786}" name="Standard_x000a_deviation conc (#/m3)"/>
+    <tableColumn id="13" xr3:uid="{211C2B40-088A-4A72-8C08-D592DEE9BBA7}" name="Probability distribution"/>
+    <tableColumn id="14" xr3:uid="{AC9AB52F-FE2B-4AE5-9C91-BC8905DF62F1}" name="Reference"/>
+    <tableColumn id="15" xr3:uid="{ECCE8317-711E-4E49-9986-31223794C2FC}" name="Correction.Factor" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,21 +893,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N392"/>
+  <dimension ref="A1:O392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="80.59765625" customWidth="1"/>
-    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.625" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.5" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="22.75" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,8 +960,11 @@
       <c r="N1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -936,8 +1007,12 @@
       <c r="N2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -980,8 +1055,12 @@
       <c r="N3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1024,8 +1103,12 @@
       <c r="N4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1068,8 +1151,12 @@
       <c r="N5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1112,8 +1199,12 @@
       <c r="N6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1156,8 +1247,12 @@
       <c r="N7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1200,8 +1295,12 @@
       <c r="N8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1244,8 +1343,12 @@
       <c r="N9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1288,8 +1391,12 @@
       <c r="N10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1332,8 +1439,12 @@
       <c r="N11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1376,8 +1487,12 @@
       <c r="N12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1420,8 +1535,12 @@
       <c r="N13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1464,8 +1583,12 @@
       <c r="N14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1508,8 +1631,12 @@
       <c r="N15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1552,8 +1679,12 @@
       <c r="N16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1596,8 +1727,12 @@
       <c r="N17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1640,8 +1775,12 @@
       <c r="N18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1684,8 +1823,12 @@
       <c r="N19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1728,8 +1871,12 @@
       <c r="N20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1772,8 +1919,12 @@
       <c r="N21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1816,8 +1967,12 @@
       <c r="N22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1860,8 +2015,12 @@
       <c r="N23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1904,8 +2063,12 @@
       <c r="N24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1948,8 +2111,12 @@
       <c r="N25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1992,8 +2159,12 @@
       <c r="N26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2036,8 +2207,12 @@
       <c r="N27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2080,8 +2255,12 @@
       <c r="N28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2124,8 +2303,12 @@
       <c r="N29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2168,8 +2351,12 @@
       <c r="N30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2212,8 +2399,12 @@
       <c r="N31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2256,8 +2447,12 @@
       <c r="N32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2300,8 +2495,12 @@
       <c r="N33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2344,8 +2543,12 @@
       <c r="N34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2388,8 +2591,12 @@
       <c r="N35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2432,8 +2639,12 @@
       <c r="N36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2476,8 +2687,12 @@
       <c r="N37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2520,8 +2735,12 @@
       <c r="N38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2564,8 +2783,12 @@
       <c r="N39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2605,8 +2828,12 @@
       <c r="N40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2646,8 +2873,12 @@
       <c r="N41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2687,8 +2918,12 @@
       <c r="N42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -2728,8 +2963,12 @@
       <c r="N43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2769,8 +3008,12 @@
       <c r="N44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -2810,8 +3053,12 @@
       <c r="N45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2851,8 +3098,12 @@
       <c r="N46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -2892,8 +3143,12 @@
       <c r="N47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -2933,8 +3188,12 @@
       <c r="N48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2974,8 +3233,12 @@
       <c r="N49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -3015,8 +3278,12 @@
       <c r="N50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -3056,8 +3323,12 @@
       <c r="N51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3097,8 +3368,12 @@
       <c r="N52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3138,8 +3413,12 @@
       <c r="N53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -3179,8 +3458,12 @@
       <c r="N54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -3220,8 +3503,12 @@
       <c r="N55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -3261,8 +3548,12 @@
       <c r="N56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3302,8 +3593,12 @@
       <c r="N57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -3343,8 +3638,12 @@
       <c r="N58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -3384,8 +3683,12 @@
       <c r="N59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -3425,8 +3728,12 @@
       <c r="N60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -3466,8 +3773,12 @@
       <c r="N61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -3507,8 +3818,12 @@
       <c r="N62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -3548,8 +3863,12 @@
       <c r="N63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -3589,8 +3908,12 @@
       <c r="N64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>35</v>
       </c>
@@ -3633,8 +3956,12 @@
       <c r="N65" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>35</v>
       </c>
@@ -3677,8 +4004,12 @@
       <c r="N66" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>35</v>
       </c>
@@ -3721,8 +4052,12 @@
       <c r="N67" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>35</v>
       </c>
@@ -3765,8 +4100,12 @@
       <c r="N68" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>35</v>
       </c>
@@ -3809,8 +4148,12 @@
       <c r="N69" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
@@ -3853,8 +4196,12 @@
       <c r="N70" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>35</v>
       </c>
@@ -3897,8 +4244,12 @@
       <c r="N71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>35</v>
       </c>
@@ -3941,8 +4292,12 @@
       <c r="N72" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>35</v>
       </c>
@@ -3985,8 +4340,12 @@
       <c r="N73" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -4029,8 +4388,12 @@
       <c r="N74" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
@@ -4073,8 +4436,12 @@
       <c r="N75" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -4117,8 +4484,12 @@
       <c r="N76" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
@@ -4161,8 +4532,12 @@
       <c r="N77" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>35</v>
       </c>
@@ -4205,8 +4580,12 @@
       <c r="N78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>35</v>
       </c>
@@ -4249,8 +4628,12 @@
       <c r="N79" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
@@ -4293,8 +4676,12 @@
       <c r="N80" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>35</v>
       </c>
@@ -4337,8 +4724,12 @@
       <c r="N81" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
@@ -4381,8 +4772,12 @@
       <c r="N82" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>35</v>
       </c>
@@ -4425,8 +4820,12 @@
       <c r="N83" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>35</v>
       </c>
@@ -4469,8 +4868,12 @@
       <c r="N84" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -4513,8 +4916,12 @@
       <c r="N85" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
@@ -4557,8 +4964,12 @@
       <c r="N86" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>35</v>
       </c>
@@ -4601,8 +5012,12 @@
       <c r="N87" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
@@ -4645,8 +5060,12 @@
       <c r="N88" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>35</v>
       </c>
@@ -4689,8 +5108,12 @@
       <c r="N89" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -4733,8 +5156,12 @@
       <c r="N90" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4777,8 +5204,12 @@
       <c r="N91" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>35</v>
       </c>
@@ -4821,8 +5252,12 @@
       <c r="N92" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>35</v>
       </c>
@@ -4865,8 +5300,12 @@
       <c r="N93" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O93" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>35</v>
       </c>
@@ -4909,8 +5348,12 @@
       <c r="N94" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O94" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -4953,8 +5396,12 @@
       <c r="N95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>35</v>
       </c>
@@ -4997,8 +5444,12 @@
       <c r="N96" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>35</v>
       </c>
@@ -5041,8 +5492,12 @@
       <c r="N97" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>35</v>
       </c>
@@ -5085,8 +5540,12 @@
       <c r="N98" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>35</v>
       </c>
@@ -5129,8 +5588,12 @@
       <c r="N99" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>35</v>
       </c>
@@ -5173,8 +5636,12 @@
       <c r="N100" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>35</v>
       </c>
@@ -5217,8 +5684,12 @@
       <c r="N101" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -5258,8 +5729,12 @@
       <c r="N102" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O102" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -5299,8 +5774,12 @@
       <c r="N103" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O103" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -5340,8 +5819,12 @@
       <c r="N104" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O104" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -5381,8 +5864,12 @@
       <c r="N105" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O105" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -5422,8 +5909,12 @@
       <c r="N106" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O106" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -5463,8 +5954,12 @@
       <c r="N107" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O107" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -5504,8 +5999,12 @@
       <c r="N108" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O108" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -5545,8 +6044,12 @@
       <c r="N109" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O109" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -5586,8 +6089,12 @@
       <c r="N110" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O110" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -5627,8 +6134,12 @@
       <c r="N111" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O111" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -5668,8 +6179,12 @@
       <c r="N112" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O112" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -5709,8 +6224,12 @@
       <c r="N113" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O113" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -5750,8 +6269,12 @@
       <c r="N114" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O114" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -5791,8 +6314,12 @@
       <c r="N115" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O115" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>38</v>
       </c>
@@ -5832,8 +6359,12 @@
       <c r="N116" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O116" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -5873,8 +6404,12 @@
       <c r="N117" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O117" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -5914,8 +6449,12 @@
       <c r="N118" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O118" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -5955,8 +6494,12 @@
       <c r="N119" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O119" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -5996,8 +6539,12 @@
       <c r="N120" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O120" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -6037,8 +6584,12 @@
       <c r="N121" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O121" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -6078,8 +6629,12 @@
       <c r="N122" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O122" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -6119,8 +6674,12 @@
       <c r="N123" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O123" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -6160,8 +6719,12 @@
       <c r="N124" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O124" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -6201,8 +6764,12 @@
       <c r="N125" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O125" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -6242,8 +6809,12 @@
       <c r="N126" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O126" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>38</v>
       </c>
@@ -6283,8 +6854,12 @@
       <c r="N127" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O127" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>38</v>
       </c>
@@ -6324,8 +6899,12 @@
       <c r="N128" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>38</v>
       </c>
@@ -6365,8 +6944,12 @@
       <c r="N129" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O129" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -6406,8 +6989,12 @@
       <c r="N130" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O130" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -6447,8 +7034,12 @@
       <c r="N131" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O131" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>112</v>
       </c>
@@ -6491,8 +7082,12 @@
       <c r="N132" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>112</v>
       </c>
@@ -6535,8 +7130,12 @@
       <c r="N133" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>112</v>
       </c>
@@ -6579,8 +7178,12 @@
       <c r="N134" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>113</v>
       </c>
@@ -6621,8 +7224,12 @@
       <c r="N135" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O135" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>113</v>
       </c>
@@ -6663,8 +7270,12 @@
       <c r="N136" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O136" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>113</v>
       </c>
@@ -6705,8 +7316,12 @@
       <c r="N137" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O137" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>114</v>
       </c>
@@ -6747,8 +7362,12 @@
       <c r="N138" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O138" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>114</v>
       </c>
@@ -6789,8 +7408,12 @@
       <c r="N139" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O139" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>114</v>
       </c>
@@ -6831,8 +7454,12 @@
       <c r="N140" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O140" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>114</v>
       </c>
@@ -6873,8 +7500,12 @@
       <c r="N141" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O141" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>114</v>
       </c>
@@ -6915,8 +7546,12 @@
       <c r="N142" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O142" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>114</v>
       </c>
@@ -6957,8 +7592,12 @@
       <c r="N143" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O143" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>44</v>
       </c>
@@ -6998,8 +7637,12 @@
       <c r="N144" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O144" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>44</v>
       </c>
@@ -7039,8 +7682,12 @@
       <c r="N145" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O145" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>117</v>
       </c>
@@ -7083,8 +7730,12 @@
       <c r="N146" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O146" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>117</v>
       </c>
@@ -7127,8 +7778,12 @@
       <c r="N147" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O147" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>117</v>
       </c>
@@ -7171,8 +7826,12 @@
       <c r="N148" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O148" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>118</v>
       </c>
@@ -7215,8 +7874,12 @@
       <c r="N149" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O149" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>118</v>
       </c>
@@ -7259,8 +7922,12 @@
       <c r="N150" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O150" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>118</v>
       </c>
@@ -7303,8 +7970,12 @@
       <c r="N151" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O151" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>118</v>
       </c>
@@ -7347,8 +8018,12 @@
       <c r="N152" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O152" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>118</v>
       </c>
@@ -7391,8 +8066,12 @@
       <c r="N153" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O153" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>118</v>
       </c>
@@ -7435,8 +8114,12 @@
       <c r="N154" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O154" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>118</v>
       </c>
@@ -7479,8 +8162,12 @@
       <c r="N155" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O155" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>118</v>
       </c>
@@ -7523,8 +8210,12 @@
       <c r="N156" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O156" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>118</v>
       </c>
@@ -7567,8 +8258,12 @@
       <c r="N157" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O157" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>118</v>
       </c>
@@ -7611,8 +8306,12 @@
       <c r="N158" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O158" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>118</v>
       </c>
@@ -7655,8 +8354,12 @@
       <c r="N159" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O159" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>118</v>
       </c>
@@ -7699,8 +8402,12 @@
       <c r="N160" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O160" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>118</v>
       </c>
@@ -7743,8 +8450,12 @@
       <c r="N161" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O161" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>118</v>
       </c>
@@ -7787,8 +8498,12 @@
       <c r="N162" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O162" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>118</v>
       </c>
@@ -7831,8 +8546,12 @@
       <c r="N163" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O163" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>118</v>
       </c>
@@ -7875,8 +8594,12 @@
       <c r="N164" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O164" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>50</v>
       </c>
@@ -7919,8 +8642,12 @@
       <c r="N165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O165" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>50</v>
       </c>
@@ -7963,8 +8690,12 @@
       <c r="N166" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O166" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>50</v>
       </c>
@@ -8007,8 +8738,12 @@
       <c r="N167" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O167" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>50</v>
       </c>
@@ -8051,8 +8786,12 @@
       <c r="N168" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O168" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>50</v>
       </c>
@@ -8095,8 +8834,12 @@
       <c r="N169" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O169" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>50</v>
       </c>
@@ -8139,8 +8882,12 @@
       <c r="N170" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O170" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>53</v>
       </c>
@@ -8183,8 +8930,12 @@
       <c r="N171" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O171" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -8227,8 +8978,12 @@
       <c r="N172" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O172" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>53</v>
       </c>
@@ -8271,8 +9026,12 @@
       <c r="N173" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O173" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>53</v>
       </c>
@@ -8315,8 +9074,12 @@
       <c r="N174" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O174" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>53</v>
       </c>
@@ -8359,8 +9122,12 @@
       <c r="N175" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O175" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>53</v>
       </c>
@@ -8403,8 +9170,12 @@
       <c r="N176" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O176" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -8447,8 +9218,12 @@
       <c r="N177" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O177" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -8491,8 +9266,12 @@
       <c r="N178" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O178" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>53</v>
       </c>
@@ -8535,8 +9314,12 @@
       <c r="N179" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O179" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -8579,8 +9362,12 @@
       <c r="N180" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O180" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>64</v>
       </c>
@@ -8623,8 +9410,12 @@
       <c r="N181" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O181" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>64</v>
       </c>
@@ -8667,8 +9458,12 @@
       <c r="N182" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O182" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>64</v>
       </c>
@@ -8711,8 +9506,12 @@
       <c r="N183" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O183" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>64</v>
       </c>
@@ -8755,8 +9554,12 @@
       <c r="N184" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O184" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>64</v>
       </c>
@@ -8799,8 +9602,12 @@
       <c r="N185" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O185" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>64</v>
       </c>
@@ -8843,8 +9650,12 @@
       <c r="N186" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O186" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>64</v>
       </c>
@@ -8887,8 +9698,12 @@
       <c r="N187" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O187" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>64</v>
       </c>
@@ -8931,8 +9746,12 @@
       <c r="N188" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O188" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>64</v>
       </c>
@@ -8975,8 +9794,12 @@
       <c r="N189" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O189" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>64</v>
       </c>
@@ -9019,8 +9842,12 @@
       <c r="N190" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O190" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>64</v>
       </c>
@@ -9063,8 +9890,12 @@
       <c r="N191" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O191" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>64</v>
       </c>
@@ -9107,8 +9938,12 @@
       <c r="N192" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O192" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>64</v>
       </c>
@@ -9151,8 +9986,12 @@
       <c r="N193" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O193" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>73</v>
       </c>
@@ -9195,8 +10034,12 @@
       <c r="N194" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O194" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -9239,8 +10082,12 @@
       <c r="N195" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O195" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -9283,8 +10130,12 @@
       <c r="N196" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O196" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>73</v>
       </c>
@@ -9327,8 +10178,12 @@
       <c r="N197" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O197" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>73</v>
       </c>
@@ -9371,8 +10226,12 @@
       <c r="N198" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O198" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>73</v>
       </c>
@@ -9415,8 +10274,12 @@
       <c r="N199" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O199" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>73</v>
       </c>
@@ -9459,8 +10322,12 @@
       <c r="N200" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O200" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>73</v>
       </c>
@@ -9503,8 +10370,12 @@
       <c r="N201" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O201" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>73</v>
       </c>
@@ -9547,8 +10418,12 @@
       <c r="N202" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O202" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>73</v>
       </c>
@@ -9591,8 +10466,12 @@
       <c r="N203" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O203" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>73</v>
       </c>
@@ -9635,8 +10514,12 @@
       <c r="N204" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O204" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>119</v>
       </c>
@@ -9679,8 +10562,12 @@
       <c r="N205" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>119</v>
       </c>
@@ -9723,8 +10610,12 @@
       <c r="N206" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>119</v>
       </c>
@@ -9767,8 +10658,12 @@
       <c r="N207" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>119</v>
       </c>
@@ -9811,8 +10706,12 @@
       <c r="N208" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>119</v>
       </c>
@@ -9855,8 +10754,12 @@
       <c r="N209" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>119</v>
       </c>
@@ -9899,8 +10802,12 @@
       <c r="N210" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>119</v>
       </c>
@@ -9943,8 +10850,12 @@
       <c r="N211" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>119</v>
       </c>
@@ -9987,8 +10898,12 @@
       <c r="N212" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>119</v>
       </c>
@@ -10031,8 +10946,12 @@
       <c r="N213" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>119</v>
       </c>
@@ -10075,8 +10994,12 @@
       <c r="N214" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>119</v>
       </c>
@@ -10119,8 +11042,12 @@
       <c r="N215" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>119</v>
       </c>
@@ -10163,8 +11090,12 @@
       <c r="N216" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>119</v>
       </c>
@@ -10207,8 +11138,12 @@
       <c r="N217" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>119</v>
       </c>
@@ -10251,8 +11186,12 @@
       <c r="N218" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>119</v>
       </c>
@@ -10295,8 +11234,12 @@
       <c r="N219" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>119</v>
       </c>
@@ -10339,8 +11282,12 @@
       <c r="N220" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>119</v>
       </c>
@@ -10383,8 +11330,12 @@
       <c r="N221" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>119</v>
       </c>
@@ -10427,8 +11378,12 @@
       <c r="N222" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>119</v>
       </c>
@@ -10471,8 +11426,12 @@
       <c r="N223" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>119</v>
       </c>
@@ -10515,8 +11474,12 @@
       <c r="N224" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>119</v>
       </c>
@@ -10559,8 +11522,12 @@
       <c r="N225" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>119</v>
       </c>
@@ -10603,8 +11570,12 @@
       <c r="N226" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>119</v>
       </c>
@@ -10647,8 +11618,12 @@
       <c r="N227" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>119</v>
       </c>
@@ -10691,8 +11666,12 @@
       <c r="N228" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>119</v>
       </c>
@@ -10735,8 +11714,12 @@
       <c r="N229" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>119</v>
       </c>
@@ -10779,8 +11762,12 @@
       <c r="N230" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>119</v>
       </c>
@@ -10823,8 +11810,12 @@
       <c r="N231" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>119</v>
       </c>
@@ -10867,8 +11858,12 @@
       <c r="N232" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>119</v>
       </c>
@@ -10911,8 +11906,12 @@
       <c r="N233" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>82</v>
       </c>
@@ -10955,8 +11954,12 @@
       <c r="N234" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>82</v>
       </c>
@@ -10999,8 +12002,12 @@
       <c r="N235" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>82</v>
       </c>
@@ -11043,8 +12050,12 @@
       <c r="N236" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>82</v>
       </c>
@@ -11087,8 +12098,12 @@
       <c r="N237" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>82</v>
       </c>
@@ -11131,8 +12146,12 @@
       <c r="N238" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>82</v>
       </c>
@@ -11175,8 +12194,12 @@
       <c r="N239" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>82</v>
       </c>
@@ -11219,8 +12242,12 @@
       <c r="N240" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>82</v>
       </c>
@@ -11263,8 +12290,12 @@
       <c r="N241" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>82</v>
       </c>
@@ -11307,8 +12338,12 @@
       <c r="N242" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>82</v>
       </c>
@@ -11351,8 +12386,12 @@
       <c r="N243" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>82</v>
       </c>
@@ -11395,8 +12434,12 @@
       <c r="N244" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>82</v>
       </c>
@@ -11439,8 +12482,12 @@
       <c r="N245" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>82</v>
       </c>
@@ -11483,8 +12530,12 @@
       <c r="N246" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>82</v>
       </c>
@@ -11527,8 +12578,12 @@
       <c r="N247" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>82</v>
       </c>
@@ -11571,8 +12626,12 @@
       <c r="N248" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>82</v>
       </c>
@@ -11615,8 +12674,12 @@
       <c r="N249" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O249">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>82</v>
       </c>
@@ -11659,8 +12722,12 @@
       <c r="N250" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O250">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>82</v>
       </c>
@@ -11703,8 +12770,12 @@
       <c r="N251" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O251">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>82</v>
       </c>
@@ -11747,8 +12818,12 @@
       <c r="N252" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O252">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>82</v>
       </c>
@@ -11791,8 +12866,12 @@
       <c r="N253" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O253">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>86</v>
       </c>
@@ -11832,8 +12911,12 @@
       <c r="N254" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O254">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>86</v>
       </c>
@@ -11873,8 +12956,12 @@
       <c r="N255" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O255">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>86</v>
       </c>
@@ -11914,8 +13001,12 @@
       <c r="N256" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O256">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>86</v>
       </c>
@@ -11955,8 +13046,12 @@
       <c r="N257" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O257">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>86</v>
       </c>
@@ -11996,8 +13091,12 @@
       <c r="N258" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O258">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>88</v>
       </c>
@@ -12040,8 +13139,12 @@
       <c r="N259" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O259">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>88</v>
       </c>
@@ -12084,8 +13187,12 @@
       <c r="N260" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O260">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>90</v>
       </c>
@@ -12125,8 +13232,12 @@
       <c r="N261" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O261" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>90</v>
       </c>
@@ -12166,8 +13277,12 @@
       <c r="N262" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O262" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -12207,8 +13322,12 @@
       <c r="N263" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O263" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -12248,8 +13367,12 @@
       <c r="N264" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O264" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -12289,8 +13412,12 @@
       <c r="N265" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O265" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -12330,8 +13457,12 @@
       <c r="N266" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O266" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -12371,8 +13502,12 @@
       <c r="N267" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O267" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -12412,8 +13547,12 @@
       <c r="N268" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O268" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -12453,8 +13592,12 @@
       <c r="N269" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O269" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -12494,8 +13637,12 @@
       <c r="N270" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O270" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -12535,8 +13682,12 @@
       <c r="N271" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O271" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -12576,8 +13727,12 @@
       <c r="N272" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O272" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -12617,8 +13772,12 @@
       <c r="N273" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O273" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -12658,8 +13817,12 @@
       <c r="N274" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O274" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -12699,8 +13862,12 @@
       <c r="N275" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O275" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -12740,8 +13907,12 @@
       <c r="N276" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O276" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -12781,8 +13952,12 @@
       <c r="N277" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O277" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -12822,8 +13997,12 @@
       <c r="N278" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O278" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -12863,8 +14042,12 @@
       <c r="N279" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O279" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -12904,8 +14087,12 @@
       <c r="N280" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O280" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -12945,8 +14132,12 @@
       <c r="N281" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O281" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -12986,8 +14177,12 @@
       <c r="N282" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O282" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -13027,8 +14222,12 @@
       <c r="N283" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O283" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -13068,8 +14267,12 @@
       <c r="N284" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O284" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -13109,8 +14312,12 @@
       <c r="N285" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O285" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -13150,8 +14357,12 @@
       <c r="N286" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O286" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -13191,8 +14402,12 @@
       <c r="N287" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O287" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -13232,8 +14447,12 @@
       <c r="N288" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O288" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -13273,8 +14492,12 @@
       <c r="N289" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O289" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>92</v>
       </c>
@@ -13314,8 +14537,12 @@
       <c r="N290" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O290" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>92</v>
       </c>
@@ -13355,8 +14582,12 @@
       <c r="N291" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O291" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>92</v>
       </c>
@@ -13396,8 +14627,12 @@
       <c r="N292" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O292" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>92</v>
       </c>
@@ -13437,8 +14672,12 @@
       <c r="N293" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O293" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>92</v>
       </c>
@@ -13478,8 +14717,12 @@
       <c r="N294" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O294" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>92</v>
       </c>
@@ -13519,8 +14762,12 @@
       <c r="N295" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O295" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>92</v>
       </c>
@@ -13560,8 +14807,12 @@
       <c r="N296" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O296" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>92</v>
       </c>
@@ -13601,8 +14852,12 @@
       <c r="N297" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O297" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -13642,8 +14897,12 @@
       <c r="N298" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O298" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>92</v>
       </c>
@@ -13683,8 +14942,12 @@
       <c r="N299" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O299" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>92</v>
       </c>
@@ -13724,8 +14987,12 @@
       <c r="N300" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O300" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>92</v>
       </c>
@@ -13765,8 +15032,12 @@
       <c r="N301" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O301" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>92</v>
       </c>
@@ -13806,8 +15077,12 @@
       <c r="N302" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O302" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>92</v>
       </c>
@@ -13847,8 +15122,12 @@
       <c r="N303" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O303" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -13888,8 +15167,12 @@
       <c r="N304" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O304" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>92</v>
       </c>
@@ -13929,8 +15212,12 @@
       <c r="N305" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O305" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>92</v>
       </c>
@@ -13970,8 +15257,12 @@
       <c r="N306" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O306" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>92</v>
       </c>
@@ -14011,8 +15302,12 @@
       <c r="N307" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O307" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>92</v>
       </c>
@@ -14052,8 +15347,12 @@
       <c r="N308" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O308" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>92</v>
       </c>
@@ -14093,8 +15392,12 @@
       <c r="N309" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O309" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>92</v>
       </c>
@@ -14134,8 +15437,12 @@
       <c r="N310" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O310" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>92</v>
       </c>
@@ -14175,8 +15482,12 @@
       <c r="N311" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O311" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>92</v>
       </c>
@@ -14216,8 +15527,12 @@
       <c r="N312" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O312" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>92</v>
       </c>
@@ -14257,8 +15572,12 @@
       <c r="N313" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O313" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>92</v>
       </c>
@@ -14298,8 +15617,12 @@
       <c r="N314" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O314" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>92</v>
       </c>
@@ -14339,8 +15662,12 @@
       <c r="N315" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O315" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>92</v>
       </c>
@@ -14380,8 +15707,12 @@
       <c r="N316" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O316" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>92</v>
       </c>
@@ -14421,8 +15752,12 @@
       <c r="N317" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O317" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>92</v>
       </c>
@@ -14462,8 +15797,12 @@
       <c r="N318" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O318" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>93</v>
       </c>
@@ -14506,8 +15845,12 @@
       <c r="N319" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O319">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>93</v>
       </c>
@@ -14550,8 +15893,12 @@
       <c r="N320" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O320">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>93</v>
       </c>
@@ -14594,8 +15941,12 @@
       <c r="N321" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O321">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>93</v>
       </c>
@@ -14638,8 +15989,12 @@
       <c r="N322" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O322">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>93</v>
       </c>
@@ -14682,8 +16037,12 @@
       <c r="N323" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O323">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>93</v>
       </c>
@@ -14726,8 +16085,12 @@
       <c r="N324" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O324">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>93</v>
       </c>
@@ -14770,8 +16133,12 @@
       <c r="N325" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O325">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>93</v>
       </c>
@@ -14814,8 +16181,12 @@
       <c r="N326" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O326">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>93</v>
       </c>
@@ -14858,8 +16229,12 @@
       <c r="N327" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O327">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>93</v>
       </c>
@@ -14902,8 +16277,12 @@
       <c r="N328" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O328">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>93</v>
       </c>
@@ -14946,8 +16325,12 @@
       <c r="N329" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O329">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>93</v>
       </c>
@@ -14990,8 +16373,12 @@
       <c r="N330" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O330">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>93</v>
       </c>
@@ -15034,8 +16421,12 @@
       <c r="N331" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O331">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>93</v>
       </c>
@@ -15078,8 +16469,12 @@
       <c r="N332" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O332">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>93</v>
       </c>
@@ -15122,8 +16517,12 @@
       <c r="N333" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O333">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>93</v>
       </c>
@@ -15166,8 +16565,12 @@
       <c r="N334" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O334">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>93</v>
       </c>
@@ -15210,8 +16613,12 @@
       <c r="N335" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O335">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>93</v>
       </c>
@@ -15254,8 +16661,12 @@
       <c r="N336" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O336">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>98</v>
       </c>
@@ -15298,8 +16709,12 @@
       <c r="N337" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O337">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>98</v>
       </c>
@@ -15342,8 +16757,12 @@
       <c r="N338" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O338">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>98</v>
       </c>
@@ -15386,8 +16805,12 @@
       <c r="N339" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O339">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>98</v>
       </c>
@@ -15430,8 +16853,12 @@
       <c r="N340" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O340">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>98</v>
       </c>
@@ -15474,8 +16901,12 @@
       <c r="N341" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O341">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>98</v>
       </c>
@@ -15518,8 +16949,12 @@
       <c r="N342" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O342">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>98</v>
       </c>
@@ -15562,8 +16997,12 @@
       <c r="N343" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O343">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>98</v>
       </c>
@@ -15606,8 +17045,12 @@
       <c r="N344" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O344">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>98</v>
       </c>
@@ -15650,8 +17093,12 @@
       <c r="N345" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O345">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>128</v>
       </c>
@@ -15692,8 +17139,12 @@
       <c r="N346" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O346" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>128</v>
       </c>
@@ -15734,8 +17185,12 @@
       <c r="N347" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O347" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>128</v>
       </c>
@@ -15776,8 +17231,12 @@
       <c r="N348" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O348" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>128</v>
       </c>
@@ -15818,8 +17277,12 @@
       <c r="N349" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O349" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>128</v>
       </c>
@@ -15860,8 +17323,12 @@
       <c r="N350" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O350" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>128</v>
       </c>
@@ -15902,8 +17369,12 @@
       <c r="N351" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O351" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>128</v>
       </c>
@@ -15944,8 +17415,12 @@
       <c r="N352" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O352" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>128</v>
       </c>
@@ -15986,8 +17461,12 @@
       <c r="N353" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O353" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>128</v>
       </c>
@@ -16028,8 +17507,12 @@
       <c r="N354" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O354" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>105</v>
       </c>
@@ -16072,8 +17555,12 @@
       <c r="N355" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O355" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>105</v>
       </c>
@@ -16116,8 +17603,12 @@
       <c r="N356" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O356" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>105</v>
       </c>
@@ -16160,8 +17651,12 @@
       <c r="N357" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O357" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>105</v>
       </c>
@@ -16204,8 +17699,12 @@
       <c r="N358" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O358" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>105</v>
       </c>
@@ -16248,8 +17747,12 @@
       <c r="N359" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O359" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>105</v>
       </c>
@@ -16292,8 +17795,12 @@
       <c r="N360" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O360" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>105</v>
       </c>
@@ -16336,8 +17843,12 @@
       <c r="N361" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O361" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>105</v>
       </c>
@@ -16380,8 +17891,12 @@
       <c r="N362" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O362" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>105</v>
       </c>
@@ -16424,8 +17939,12 @@
       <c r="N363" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O363" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>105</v>
       </c>
@@ -16468,8 +17987,12 @@
       <c r="N364" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O364" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>105</v>
       </c>
@@ -16512,8 +18035,12 @@
       <c r="N365" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O365" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>105</v>
       </c>
@@ -16556,8 +18083,12 @@
       <c r="N366" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O366" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>105</v>
       </c>
@@ -16600,8 +18131,12 @@
       <c r="N367" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O367" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>105</v>
       </c>
@@ -16644,8 +18179,12 @@
       <c r="N368" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O368" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>105</v>
       </c>
@@ -16688,8 +18227,12 @@
       <c r="N369" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O369" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>105</v>
       </c>
@@ -16732,8 +18275,12 @@
       <c r="N370" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O370" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>105</v>
       </c>
@@ -16776,8 +18323,12 @@
       <c r="N371" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O371" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>105</v>
       </c>
@@ -16820,8 +18371,12 @@
       <c r="N372" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O372" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>105</v>
       </c>
@@ -16864,8 +18419,12 @@
       <c r="N373" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O373" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>105</v>
       </c>
@@ -16908,8 +18467,12 @@
       <c r="N374" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O374" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>105</v>
       </c>
@@ -16952,8 +18515,12 @@
       <c r="N375" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O375" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>105</v>
       </c>
@@ -16996,8 +18563,12 @@
       <c r="N376" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O376" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>105</v>
       </c>
@@ -17040,8 +18611,12 @@
       <c r="N377" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O377" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>105</v>
       </c>
@@ -17084,8 +18659,12 @@
       <c r="N378" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O378" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>105</v>
       </c>
@@ -17128,8 +18707,12 @@
       <c r="N379" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O379" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>105</v>
       </c>
@@ -17172,8 +18755,12 @@
       <c r="N380" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O380" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>105</v>
       </c>
@@ -17216,8 +18803,12 @@
       <c r="N381" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O381" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>105</v>
       </c>
@@ -17260,8 +18851,12 @@
       <c r="N382" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O382" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>105</v>
       </c>
@@ -17304,8 +18899,12 @@
       <c r="N383" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O383" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>105</v>
       </c>
@@ -17348,8 +18947,12 @@
       <c r="N384" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O384" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>105</v>
       </c>
@@ -17392,8 +18995,12 @@
       <c r="N385" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O385" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>105</v>
       </c>
@@ -17436,8 +19043,12 @@
       <c r="N386" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O386" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>105</v>
       </c>
@@ -17480,8 +19091,12 @@
       <c r="N387" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O387" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>105</v>
       </c>
@@ -17524,8 +19139,12 @@
       <c r="N388" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O388" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>105</v>
       </c>
@@ -17568,8 +19187,12 @@
       <c r="N389" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O389" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>105</v>
       </c>
@@ -17612,8 +19235,12 @@
       <c r="N390" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O390" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>105</v>
       </c>
@@ -17656,8 +19283,12 @@
       <c r="N391" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O391" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>105</v>
       </c>
@@ -17699,6 +19330,10 @@
       </c>
       <c r="N392" t="s">
         <v>106</v>
+      </c>
+      <c r="O392" t="b">
+        <f>IF(Table1[[#This Row],[Min particle size um]]=333,40.37)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17709,5 +19344,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>